--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TP</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>dnn</t>
+  </si>
+  <si>
+    <t>rfc</t>
   </si>
   <si>
     <t>gnb</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,28 +450,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.9803921568627451</v>
-      </c>
       <c r="G2">
-        <v>0.6172839506172839</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H2">
-        <v>0.6444444444444445</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I2">
-        <v>0.7575757575757576</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -485,19 +488,19 @@
         <v>29</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.8431372549019608</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G3">
-        <v>0.8113207547169812</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="I3">
-        <v>0.826923076923077</v>
+        <v>0.8807339449541284</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +508,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0.8431372549019608</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="G4">
-        <v>0.8113207547169812</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I4">
-        <v>0.826923076923077</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +537,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G5">
-        <v>0.7894736842105263</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0.8555555555555555</v>
       </c>
       <c r="I5">
-        <v>0.8333333333333333</v>
+        <v>0.8807339449541284</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,10 +569,10 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -578,13 +581,42 @@
         <v>0.9411764705882353</v>
       </c>
       <c r="G6">
-        <v>0.7868852459016393</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H6">
-        <v>0.8222222222222222</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I6">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="G7">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="H7">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="I7">
+        <v>0.8679245283018867</v>
       </c>
     </row>
   </sheetData>
